--- a/דוח_עודפים.xlsx
+++ b/דוח_עודפים.xlsx
@@ -43,13 +43,16 @@
     <t>Months</t>
   </si>
   <si>
+    <t>235</t>
+  </si>
+  <si>
     <t>253</t>
   </si>
   <si>
     <t>221</t>
   </si>
   <si>
-    <t>235</t>
+    <t>weg</t>
   </si>
   <si>
     <t>wbre</t>
@@ -58,31 +61,28 @@
     <t>shirt</t>
   </si>
   <si>
-    <t>weg</t>
-  </si>
-  <si>
     <t>FOX</t>
   </si>
   <si>
     <t>FOX-Home</t>
   </si>
   <si>
+    <t>31.50</t>
+  </si>
+  <si>
     <t>6.86</t>
   </si>
   <si>
-    <t>18.99</t>
-  </si>
-  <si>
-    <t>31.50</t>
+    <t>18.61</t>
+  </si>
+  <si>
+    <t>61</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
     <t>29</t>
-  </si>
-  <si>
-    <t>61</t>
   </si>
 </sst>
 </file>
@@ -490,22 +490,22 @@
         <v>15</v>
       </c>
       <c r="D2">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
         <v>17</v>
       </c>
       <c r="F2" s="2">
-        <v>45708</v>
+        <v>45673</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="s">
         <v>20</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -516,16 +516,16 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>535</v>
+        <v>228</v>
       </c>
       <c r="E3" t="s">
         <v>18</v>
       </c>
       <c r="F3" s="2">
-        <v>45673</v>
+        <v>45708</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -548,7 +548,7 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>264</v>
+        <v>529</v>
       </c>
       <c r="E4" t="s">
         <v>19</v>
@@ -557,13 +557,13 @@
         <v>45673</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="s">
         <v>22</v>
       </c>
       <c r="I4">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
